--- a/source/goodway/goodway-web2/src/main/resources/excel-templates/Template_Question.xlsx
+++ b/source/goodway/goodway-web2/src/main/resources/excel-templates/Template_Question.xlsx
@@ -1,66 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\github.com\mksgroup\goodway\git\goodway\source\goodway\goodway-web2\src\main\resources\excel-templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="120" yWindow="240" windowWidth="12120" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="Question" sheetId="1" r:id="rId1"/>
+    <sheet name="Contents" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Contents!$7:$7</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>Category</t>
+    <t>Notes</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>References</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Created On</t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open items</t>
+  </si>
+  <si>
+    <t>Closed items</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Canceled items</t>
+  </si>
+  <si>
+    <t>Answered On</t>
+  </si>
+  <si>
+    <t>In progress items</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>Question</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Asker</t>
+    <t>Question Type</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Answert</t>
+    <t>Conclusion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -68,18 +179,1562 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="204">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="47"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -102,44 +1757,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -172,9 +1827,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -213,184 +1868,941 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="4" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20" style="2" customWidth="1"/>
+    <col min="12" max="13" width="17" style="2" customWidth="1"/>
+    <col min="14" max="15" width="20.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2">
+        <f>COUNTIF(J:J, "Open")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2">
+        <f>COUNTIF(J:J, "In progress")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2">
+        <f>COUNTIF(J:J, "Closed")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2">
+        <f>COUNTIF(J:J, "Canceled")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2">
+        <f>SUM(C1:C4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="8" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>5</v>
       </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="10"/>
     </row>
+    <row r="13" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>6</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>8</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>9</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>10</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <conditionalFormatting sqref="P8:P9 N8:N9 O8 A8:F8 C9:G9 G11:G15 G8:M10 A9:B15 I11:K16">
+    <cfRule type="expression" dxfId="203" priority="223" stopIfTrue="1">
+      <formula>($J8="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="224" stopIfTrue="1">
+      <formula>($J8="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="225" stopIfTrue="1">
+      <formula>($J8="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F11 P10:P11 N10:N11 F15:F17 P15:P16 N15:N16">
+    <cfRule type="expression" dxfId="200" priority="226" stopIfTrue="1">
+      <formula>($J9="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="199" priority="227" stopIfTrue="1">
+      <formula>($J9="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="228" stopIfTrue="1">
+      <formula>($J9="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="197" priority="220" stopIfTrue="1">
+      <formula>($J10="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="221" stopIfTrue="1">
+      <formula>($J10="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="222" stopIfTrue="1">
+      <formula>($J10="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="194" priority="217" stopIfTrue="1">
+      <formula>($J10="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="193" priority="218" stopIfTrue="1">
+      <formula>($J10="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="219" stopIfTrue="1">
+      <formula>($J10="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="expression" dxfId="191" priority="214" stopIfTrue="1">
+      <formula>($J10="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="215" stopIfTrue="1">
+      <formula>($J10="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="189" priority="216" stopIfTrue="1">
+      <formula>($J10="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="expression" dxfId="188" priority="211" stopIfTrue="1">
+      <formula>($J9="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="212" stopIfTrue="1">
+      <formula>($J9="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="186" priority="213" stopIfTrue="1">
+      <formula>($J9="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11 H11 L11:M11">
+    <cfRule type="expression" dxfId="185" priority="205" stopIfTrue="1">
+      <formula>($J11="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="206" stopIfTrue="1">
+      <formula>($J11="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="207" stopIfTrue="1">
+      <formula>($J11="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="182" priority="202" stopIfTrue="1">
+      <formula>($J11="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="181" priority="203" stopIfTrue="1">
+      <formula>($J11="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="204" stopIfTrue="1">
+      <formula>($J11="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="179" priority="199" stopIfTrue="1">
+      <formula>($J11="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="200" stopIfTrue="1">
+      <formula>($J11="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="177" priority="201" stopIfTrue="1">
+      <formula>($J11="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="expression" dxfId="176" priority="196" stopIfTrue="1">
+      <formula>($J11="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="197" stopIfTrue="1">
+      <formula>($J11="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="198" stopIfTrue="1">
+      <formula>($J11="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12 P12 N12">
+    <cfRule type="expression" dxfId="173" priority="193" stopIfTrue="1">
+      <formula>($J11="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="194" stopIfTrue="1">
+      <formula>($J11="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="195" stopIfTrue="1">
+      <formula>($J11="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12 O12 L12:M12">
+    <cfRule type="expression" dxfId="170" priority="190" stopIfTrue="1">
+      <formula>($J12="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="191" stopIfTrue="1">
+      <formula>($J12="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="192" stopIfTrue="1">
+      <formula>($J12="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="167" priority="187" stopIfTrue="1">
+      <formula>($J12="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="188" stopIfTrue="1">
+      <formula>($J12="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="189" stopIfTrue="1">
+      <formula>($J12="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="164" priority="184" stopIfTrue="1">
+      <formula>($J12="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="185" stopIfTrue="1">
+      <formula>($J12="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="186" stopIfTrue="1">
+      <formula>($J12="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="expression" dxfId="161" priority="181" stopIfTrue="1">
+      <formula>($J12="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="182" stopIfTrue="1">
+      <formula>($J12="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="183" stopIfTrue="1">
+      <formula>($J12="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13 P13 N13">
+    <cfRule type="expression" dxfId="158" priority="175" stopIfTrue="1">
+      <formula>($J12="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="157" priority="176" stopIfTrue="1">
+      <formula>($J12="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="177" stopIfTrue="1">
+      <formula>($J12="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13 O13 L13:M13">
+    <cfRule type="expression" dxfId="155" priority="172" stopIfTrue="1">
+      <formula>($J13="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="154" priority="173" stopIfTrue="1">
+      <formula>($J13="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="153" priority="174" stopIfTrue="1">
+      <formula>($J13="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="152" priority="169" stopIfTrue="1">
+      <formula>($J13="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="151" priority="170" stopIfTrue="1">
+      <formula>($J13="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="171" stopIfTrue="1">
+      <formula>($J13="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="expression" dxfId="149" priority="166" stopIfTrue="1">
+      <formula>($J13="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="167" stopIfTrue="1">
+      <formula>($J13="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="168" stopIfTrue="1">
+      <formula>($J13="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="expression" dxfId="146" priority="163" stopIfTrue="1">
+      <formula>($J13="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="145" priority="164" stopIfTrue="1">
+      <formula>($J13="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="165" stopIfTrue="1">
+      <formula>($J13="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14 P14 N14">
+    <cfRule type="expression" dxfId="143" priority="157" stopIfTrue="1">
+      <formula>($J13="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="158" stopIfTrue="1">
+      <formula>($J13="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="141" priority="159" stopIfTrue="1">
+      <formula>($J13="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14 O14 L14:M14">
+    <cfRule type="expression" dxfId="140" priority="154" stopIfTrue="1">
+      <formula>($J14="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="155" stopIfTrue="1">
+      <formula>($J14="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="156" stopIfTrue="1">
+      <formula>($J14="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="137" priority="151" stopIfTrue="1">
+      <formula>($J14="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="152" stopIfTrue="1">
+      <formula>($J14="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="135" priority="153" stopIfTrue="1">
+      <formula>($J14="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="134" priority="148" stopIfTrue="1">
+      <formula>($J14="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="149" stopIfTrue="1">
+      <formula>($J14="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="150" stopIfTrue="1">
+      <formula>($J14="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="expression" dxfId="131" priority="145" stopIfTrue="1">
+      <formula>($J14="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="146" stopIfTrue="1">
+      <formula>($J14="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="129" priority="147" stopIfTrue="1">
+      <formula>($J14="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H16 O15 L15:M16">
+    <cfRule type="expression" dxfId="128" priority="136" stopIfTrue="1">
+      <formula>($J15="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="137" stopIfTrue="1">
+      <formula>($J15="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="138" stopIfTrue="1">
+      <formula>($J15="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="125" priority="133" stopIfTrue="1">
+      <formula>($J15="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="134" stopIfTrue="1">
+      <formula>($J15="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="123" priority="135" stopIfTrue="1">
+      <formula>($J15="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="122" priority="130" stopIfTrue="1">
+      <formula>($J15="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="131" stopIfTrue="1">
+      <formula>($J15="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="132" stopIfTrue="1">
+      <formula>($J15="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="expression" dxfId="119" priority="127" stopIfTrue="1">
+      <formula>($J15="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="128" stopIfTrue="1">
+      <formula>($J15="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="129" stopIfTrue="1">
+      <formula>($J15="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="expression" dxfId="116" priority="94" stopIfTrue="1">
+      <formula>($J10="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="95" stopIfTrue="1">
+      <formula>($J10="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="96" stopIfTrue="1">
+      <formula>($J10="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="expression" dxfId="110" priority="88" stopIfTrue="1">
+      <formula>($J16="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="89" stopIfTrue="1">
+      <formula>($J16="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="90" stopIfTrue="1">
+      <formula>($J16="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16">
+    <cfRule type="expression" dxfId="107" priority="85" stopIfTrue="1">
+      <formula>($J16="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="86" stopIfTrue="1">
+      <formula>($J16="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="105" priority="87" stopIfTrue="1">
+      <formula>($J16="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17 G17:M17">
+    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
+      <formula>($J17="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+      <formula>($J17="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+      <formula>($J17="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17 N17">
+    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
+      <formula>($J4="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
+      <formula>($J4="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+      <formula>($J4="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:E17">
+    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
+      <formula>($J18="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+      <formula>($J18="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
+      <formula>($J18="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:E16">
+    <cfRule type="expression" dxfId="2" priority="790" stopIfTrue="1">
+      <formula>(#REF!="In Progress")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="791" stopIfTrue="1">
+      <formula>(#REF!="Closed")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="792" stopIfTrue="1">
+      <formula>(#REF!="Canceled")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:J18">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I17">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8:O17">
+      <formula1>"Clarification,Confirmation,HSK Defect"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8:J17">
+      <formula1>"Open,In progress,Closed,Canceled"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="37" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;L14e-BM/PM/HDCV/G8-HSK v1/2&amp;CInternal use&amp;R&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/source/goodway/goodway-web2/src/main/resources/excel-templates/Template_Question.xlsx
+++ b/source/goodway/goodway-web2/src/main/resources/excel-templates/Template_Question.xlsx
@@ -19,6 +19,29 @@
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+  </authors>
+  <commentList>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>question</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -103,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -129,6 +152,12 @@
       <b/>
       <sz val="12"/>
       <color indexed="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -250,20 +279,8 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -300,683 +317,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="204">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="47"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="108">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2032,352 +1389,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="54" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20" style="2" customWidth="1"/>
-    <col min="12" max="13" width="17" style="2" customWidth="1"/>
-    <col min="14" max="15" width="20.42578125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" customWidth="1"/>
+    <col min="12" max="13" width="17" style="1" customWidth="1"/>
+    <col min="14" max="15" width="20.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22.42578125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2">
+      <c r="B1" s="15"/>
+      <c r="C1" s="1">
         <f>COUNTIF(J:J, "Open")</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2">
+      <c r="B2" s="16"/>
+      <c r="C2" s="1">
         <f>COUNTIF(J:J, "In progress")</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2">
+      <c r="B3" s="17"/>
+      <c r="C3" s="1">
         <f>COUNTIF(J:J, "Closed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2">
+      <c r="B4" s="17"/>
+      <c r="C4" s="1">
         <f>COUNTIF(J:J, "Canceled")</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="2">
+      <c r="B5" s="18"/>
+      <c r="C5" s="1">
         <f>SUM(C1:C4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="10"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="6"/>
     </row>
-    <row r="9" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="10"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+    <row r="10" spans="1:16" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="10"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+    <row r="11" spans="1:16" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="10"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+    <row r="12" spans="1:16" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="10"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+    <row r="13" spans="1:16" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="10"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+    <row r="14" spans="1:16" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="10"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+    <row r="15" spans="1:16" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="10"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+    <row r="16" spans="1:16" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
         <v>9</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="10"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="1:16" s="13" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+    <row r="17" spans="1:16" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
         <v>10</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="10"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+    <row r="18" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2390,387 +1747,387 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="P8:P9 N8:N9 O8 A8:F8 C9:G9 G11:G15 G8:M10 A9:B15 I11:K16">
-    <cfRule type="expression" dxfId="203" priority="223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="223" stopIfTrue="1">
       <formula>($J8="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="224" stopIfTrue="1">
       <formula>($J8="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="225" stopIfTrue="1">
       <formula>($J8="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F11 P10:P11 N10:N11 F15:F17 P15:P16 N15:N16">
-    <cfRule type="expression" dxfId="200" priority="226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="226" stopIfTrue="1">
       <formula>($J9="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="227" stopIfTrue="1">
       <formula>($J9="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="228" stopIfTrue="1">
       <formula>($J9="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="197" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="220" stopIfTrue="1">
       <formula>($J10="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="221" stopIfTrue="1">
       <formula>($J10="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="222" stopIfTrue="1">
       <formula>($J10="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="194" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="217" stopIfTrue="1">
       <formula>($J10="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="218" stopIfTrue="1">
       <formula>($J10="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="219" stopIfTrue="1">
       <formula>($J10="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="191" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="214" stopIfTrue="1">
       <formula>($J10="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="215" stopIfTrue="1">
       <formula>($J10="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="216" stopIfTrue="1">
       <formula>($J10="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="188" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="211" stopIfTrue="1">
       <formula>($J9="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="212" stopIfTrue="1">
       <formula>($J9="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="213" stopIfTrue="1">
       <formula>($J9="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11 H11 L11:M11">
-    <cfRule type="expression" dxfId="185" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="205" stopIfTrue="1">
       <formula>($J11="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="206" stopIfTrue="1">
       <formula>($J11="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="207" stopIfTrue="1">
       <formula>($J11="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="182" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="202" stopIfTrue="1">
       <formula>($J11="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="203" stopIfTrue="1">
       <formula>($J11="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="204" stopIfTrue="1">
       <formula>($J11="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="179" priority="199" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="199" stopIfTrue="1">
       <formula>($J11="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="200" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="200" stopIfTrue="1">
       <formula>($J11="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="201" stopIfTrue="1">
       <formula>($J11="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="176" priority="196" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="196" stopIfTrue="1">
       <formula>($J11="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="197" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="197" stopIfTrue="1">
       <formula>($J11="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="198" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="198" stopIfTrue="1">
       <formula>($J11="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12 P12 N12">
-    <cfRule type="expression" dxfId="173" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="193" stopIfTrue="1">
       <formula>($J11="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="194" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="194" stopIfTrue="1">
       <formula>($J11="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="195" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="195" stopIfTrue="1">
       <formula>($J11="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12 O12 L12:M12">
-    <cfRule type="expression" dxfId="170" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="190" stopIfTrue="1">
       <formula>($J12="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="191" stopIfTrue="1">
       <formula>($J12="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="192" stopIfTrue="1">
       <formula>($J12="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="167" priority="187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="187" stopIfTrue="1">
       <formula>($J12="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="188" stopIfTrue="1">
       <formula>($J12="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="189" stopIfTrue="1">
       <formula>($J12="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="164" priority="184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="184" stopIfTrue="1">
       <formula>($J12="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="185" stopIfTrue="1">
       <formula>($J12="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="186" stopIfTrue="1">
       <formula>($J12="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="161" priority="181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="181" stopIfTrue="1">
       <formula>($J12="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="182" stopIfTrue="1">
       <formula>($J12="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="183" stopIfTrue="1">
       <formula>($J12="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13 P13 N13">
-    <cfRule type="expression" dxfId="158" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="175" stopIfTrue="1">
       <formula>($J12="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="176" stopIfTrue="1">
       <formula>($J12="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="177" stopIfTrue="1">
       <formula>($J12="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13 O13 L13:M13">
-    <cfRule type="expression" dxfId="155" priority="172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="172" stopIfTrue="1">
       <formula>($J13="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="173" stopIfTrue="1">
       <formula>($J13="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="174" stopIfTrue="1">
       <formula>($J13="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="expression" dxfId="152" priority="169" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="169" stopIfTrue="1">
       <formula>($J13="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="170" stopIfTrue="1">
       <formula>($J13="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="171" stopIfTrue="1">
       <formula>($J13="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="expression" dxfId="149" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="166" stopIfTrue="1">
       <formula>($J13="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="167" stopIfTrue="1">
       <formula>($J13="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="168" stopIfTrue="1">
       <formula>($J13="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="146" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="163" stopIfTrue="1">
       <formula>($J13="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="164" stopIfTrue="1">
       <formula>($J13="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="165" stopIfTrue="1">
       <formula>($J13="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14 P14 N14">
-    <cfRule type="expression" dxfId="143" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="157" stopIfTrue="1">
       <formula>($J13="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="158" stopIfTrue="1">
       <formula>($J13="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="159" stopIfTrue="1">
       <formula>($J13="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14 O14 L14:M14">
-    <cfRule type="expression" dxfId="140" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="154" stopIfTrue="1">
       <formula>($J14="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="155" stopIfTrue="1">
       <formula>($J14="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="156" stopIfTrue="1">
       <formula>($J14="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="137" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="151" stopIfTrue="1">
       <formula>($J14="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="152" stopIfTrue="1">
       <formula>($J14="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="153" stopIfTrue="1">
       <formula>($J14="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="expression" dxfId="134" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="148" stopIfTrue="1">
       <formula>($J14="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="149" stopIfTrue="1">
       <formula>($J14="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="150" stopIfTrue="1">
       <formula>($J14="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="131" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="145" stopIfTrue="1">
       <formula>($J14="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="146" stopIfTrue="1">
       <formula>($J14="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="147" stopIfTrue="1">
       <formula>($J14="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H16 O15 L15:M16">
-    <cfRule type="expression" dxfId="128" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="136" stopIfTrue="1">
       <formula>($J15="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="137" stopIfTrue="1">
       <formula>($J15="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="138" stopIfTrue="1">
       <formula>($J15="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="125" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="133" stopIfTrue="1">
       <formula>($J15="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="134" stopIfTrue="1">
       <formula>($J15="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="135" stopIfTrue="1">
       <formula>($J15="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="expression" dxfId="122" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="130" stopIfTrue="1">
       <formula>($J15="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="131" stopIfTrue="1">
       <formula>($J15="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="132" stopIfTrue="1">
       <formula>($J15="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="119" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="127" stopIfTrue="1">
       <formula>($J15="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="128" stopIfTrue="1">
       <formula>($J15="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="129" stopIfTrue="1">
       <formula>($J15="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="116" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="94" stopIfTrue="1">
       <formula>($J10="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="95" stopIfTrue="1">
       <formula>($J10="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="96" stopIfTrue="1">
       <formula>($J10="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="110" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="88" stopIfTrue="1">
       <formula>($J16="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="89" stopIfTrue="1">
       <formula>($J16="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="90" stopIfTrue="1">
       <formula>($J16="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="107" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="85" stopIfTrue="1">
       <formula>($J16="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="86" stopIfTrue="1">
       <formula>($J16="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="87" stopIfTrue="1">
       <formula>($J16="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17 G17:M17">
-    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="22" stopIfTrue="1">
       <formula>($J17="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="23" stopIfTrue="1">
       <formula>($J17="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="24" stopIfTrue="1">
       <formula>($J17="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17 N17">
-    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="19" stopIfTrue="1">
       <formula>($J4="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="20" stopIfTrue="1">
       <formula>($J4="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="21" stopIfTrue="1">
       <formula>($J4="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:E17">
-    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
       <formula>($J18="In Progress")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
       <formula>($J18="Closed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="18" stopIfTrue="1">
       <formula>($J18="Canceled")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2804,5 +2161,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L14e-BM/PM/HDCV/G8-HSK v1/2&amp;CInternal use&amp;R&amp;P/&amp;N</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>